--- a/Video Tracking/Results sensor vs video.xlsx
+++ b/Video Tracking/Results sensor vs video.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Vastmans\Documents\Noah\KTH\Master 1\Technology and Health, Project course\Coding\Video Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFAAC32-F427-4BE3-BEFD-5B2D6A886FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BBE967-3493-4BEB-8546-C03DBE89BAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CCB7C027-3A15-4CD9-9029-788E8EE1AB2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$F$2:$F$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$G$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$G$2:$G$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$H$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$H$2:$H$8</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Video</t>
   </si>
@@ -61,18 +69,117 @@
   <si>
     <t>Difference predict vs detect</t>
   </si>
+  <si>
+    <t>Average % difference video &amp; detected</t>
+  </si>
+  <si>
+    <t>Average % difference video &amp; predicted</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean Error (Predicted vs Video):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> −0.1983 seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mean Error (Detected vs Video):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> −0.1339 seconds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Mean Error % Predicted vs Video:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> −47.7 %</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>Mean Error % Detected vs Video:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> −30.5 %</t>
+    </r>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,12 +202,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -126,6 +240,6602 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Relative differences (%) between prediction, detection, and video reference per trial</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference predict vs video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49549549549549549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54734411085450341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53117782909930722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59474671669793622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16397228637413394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75160599571734465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8088-EC49-B109-6E2BB13FB58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference detect vs video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.88666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68591224018475749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67205542725173206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44110854503464203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76659528907922903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8088-EC49-B109-6E2BB13FB58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference predict vs detect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65037593984962394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6179775280898876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79797979797979801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79037800687285231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97538461538461541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37172774869109942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98044692737430161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8088-EC49-B109-6E2BB13FB58D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="162551040"/>
+        <c:axId val="162553728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="162551040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Video Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162553728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="162553728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Percentage %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162551040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Raw Time to Peak Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>predicted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C35D-8A47-9A6A-231BDDF5411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>detected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C35D-8A47-9A6A-231BDDF5411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video time (Time to peak from first frame)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C35D-8A47-9A6A-231BDDF5411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="133214016"/>
+        <c:axId val="133215808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="133214016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Video Number </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133215808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133215808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133214016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Evolution of relative error across videos</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14444714542168327"/>
+          <c:y val="0.17827854347436864"/>
+          <c:w val="0.8250138376504762"/>
+          <c:h val="0.52574379566215879"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference predict vs video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49549549549549549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54734411085450341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53117782909930722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59474671669793622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16397228637413394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75160599571734465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9373-4D49-92A5-B32CB7C69AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference detect vs video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.88666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80180180180180183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68591224018475749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67205542725173206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44110854503464203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76659528907922903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9373-4D49-92A5-B32CB7C69AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference predict vs detect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65037593984962394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6179775280898876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79797979797979801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79037800687285231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97538461538461541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37172774869109942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98044692737430161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9373-4D49-92A5-B32CB7C69AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="204639296"/>
+        <c:axId val="204644224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="204639296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Video</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> Number </a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204644224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204644224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Percentage %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204639296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Correlation between detected and video peak times</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video time (Time to peak from first frame)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C85E-944A-BF7B-DC8E49773162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>X=Y</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:tailEnd w="med" len="sm"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$C$57:$C$58</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$D$57:$D$58</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C85E-944A-BF7B-DC8E49773162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="195354496"/>
+        <c:axId val="220310912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="195354496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Detected (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220310912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="220310912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Video Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195354496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15030365121209452"/>
+          <c:y val="0.2013614062801754"/>
+          <c:w val="0.12645831771965324"/>
+          <c:h val="7.3227774076862817E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Correlation between predicted and video peak times</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video time (Time to peak from first frame)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADA0-2A45-9D27-275AF0F5D37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>X=Y</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$C$57:$C$58</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$D$57:$D$58</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADA0-2A45-9D27-275AF0F5D37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152849024"/>
+        <c:axId val="251402368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152849024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Predicted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> (s) </a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251402368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251402368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Video Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152849024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15066980025219046"/>
+          <c:y val="0.1957300526730287"/>
+          <c:w val="0.1386277071768123"/>
+          <c:h val="8.0187978575530977E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-BE" i="0"/>
+              <a:t>Distribution of relative differences for each method</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{FF5763D0-5A94-F046-99F8-2636E4E1DF29}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Difference predict vs video</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{060BE7CB-7747-284A-9107-3A41102CD3C4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Difference detect vs video</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6CD75423-94FC-9949-B3F0-818ADBF1C3E9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Difference predict vs detect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309655</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445619</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100216</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F291F363-121D-B6D4-D17E-AE0201060CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>343646</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63742</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDAC17A-E485-6FBB-2314-48DD0993F69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>956234</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22896</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EBBC16-EA9E-7044-EDC7-0ECE3B3259A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22896</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Graphique 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8D37D3-BD18-4A77-A013-A15AF894FB10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13986933" y="2208789"/>
+              <a:ext cx="4073463" cy="2631640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2792</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>239579</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Graphique 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F15B19-340D-F668-B58E-F6681DB82DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>397227</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42321</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Graphique 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75609A3C-9B63-BE91-9A02-BA084D7D70E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,22 +7178,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D12A4EC-F482-4910-A420-78EE08CE51AB}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="10" max="11" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +7219,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>81</v>
       </c>
@@ -537,8 +7254,16 @@
         <f>Tabel1[[#This Row],[predicted]]/Tabel1[[#This Row],[detected]]</f>
         <v>0.65037593984962394</v>
       </c>
+      <c r="J2" s="2">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7,G8)*100</f>
+        <v>69.484229536854343</v>
+      </c>
+      <c r="K2" s="2">
+        <f>AVERAGE(F2,F3,F4,F5,F6,F7,F8)*100</f>
+        <v>52.300130012934112</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>83</v>
       </c>
@@ -567,7 +7292,7 @@
         <v>0.6179775280898876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>84</v>
       </c>
@@ -595,8 +7320,14 @@
         <f>Tabel1[[#This Row],[predicted]]/Tabel1[[#This Row],[detected]]</f>
         <v>0.79797979797979801</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>85</v>
       </c>
@@ -624,8 +7355,14 @@
         <f>Tabel1[[#This Row],[predicted]]/Tabel1[[#This Row],[detected]]</f>
         <v>0.79037800687285231</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>86</v>
       </c>
@@ -654,7 +7391,7 @@
         <v>0.97538461538461541</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>87</v>
       </c>
@@ -683,7 +7420,7 @@
         <v>0.37172774869109942</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>88</v>
       </c>
@@ -712,10 +7449,35 @@
         <v>0.98044692737430161</v>
       </c>
     </row>
+    <row r="56" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>0.6</v>
+      </c>
+      <c r="D58">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>